--- a/ofc/estimates/lakilla mandir/estimate changed.xlsx
+++ b/ofc/estimates/lakilla mandir/estimate changed.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="139">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -488,6 +488,15 @@
   </si>
   <si>
     <t>-1st floor</t>
+  </si>
+  <si>
+    <t>Sal timber work for joist beam, column, etc. (upto 8'-0")</t>
+  </si>
+  <si>
+    <t>-for window</t>
+  </si>
+  <si>
+    <t>-twaka</t>
   </si>
 </sst>
 </file>
@@ -956,6 +965,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,24 +1021,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1022,25 +1050,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,90 +1552,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="88" t="e">
+      <c r="C6" s="90" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1634,11 +1643,11 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="88" t="e">
+      <c r="J6" s="90" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="89"/>
+      <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
@@ -1649,75 +1658,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="e">
+      <c r="A8" s="98" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="I8" s="85" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="I8" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="e">
+      <c r="A9" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="I9" s="85" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="I9" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="81" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1736,8 +1745,8 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="e">
@@ -1902,13 +1911,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1921,6 +1923,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,79 +1971,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
@@ -2046,29 +2055,29 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -5467,11 +5476,11 @@
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="95">
+      <c r="C166" s="104">
         <f>J164</f>
         <v>637771.83239571028</v>
       </c>
-      <c r="D166" s="96"/>
+      <c r="D166" s="105"/>
       <c r="E166" s="14">
         <v>100</v>
       </c>
@@ -5486,21 +5495,21 @@
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="102">
+      <c r="C167" s="111">
         <v>1000000</v>
       </c>
-      <c r="D167" s="103"/>
+      <c r="D167" s="112"/>
       <c r="E167" s="14"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="102">
+      <c r="C168" s="111">
         <f>C167-C170-C171</f>
         <v>950000</v>
       </c>
-      <c r="D168" s="103"/>
+      <c r="D168" s="112"/>
       <c r="E168" s="14">
         <f>C168/C166*100</f>
         <v>148.95609240556195</v>
@@ -5510,11 +5519,11 @@
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="94">
+      <c r="C169" s="103">
         <f>C166-C168</f>
         <v>-312228.16760428972</v>
       </c>
-      <c r="D169" s="94"/>
+      <c r="D169" s="103"/>
       <c r="E169" s="14">
         <f>100-E168</f>
         <v>-48.956092405561947</v>
@@ -5524,11 +5533,11 @@
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="95">
+      <c r="C170" s="104">
         <f>C167*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D170" s="96"/>
+      <c r="D170" s="105"/>
       <c r="E170" s="14">
         <v>3</v>
       </c>
@@ -5537,11 +5546,11 @@
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="95">
+      <c r="C171" s="104">
         <f>C167*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D171" s="96"/>
+      <c r="D171" s="105"/>
       <c r="E171" s="14">
         <v>2</v>
       </c>
@@ -5603,79 +5612,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
@@ -5687,29 +5696,29 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -9688,11 +9697,11 @@
       <c r="B192" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C192" s="95">
+      <c r="C192" s="104">
         <f>J190</f>
         <v>1119127.4076919584</v>
       </c>
-      <c r="D192" s="96"/>
+      <c r="D192" s="105"/>
       <c r="E192" s="14">
         <v>100</v>
       </c>
@@ -9707,21 +9716,21 @@
       <c r="B193" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="102">
+      <c r="C193" s="111">
         <v>1000000</v>
       </c>
-      <c r="D193" s="103"/>
+      <c r="D193" s="112"/>
       <c r="E193" s="14"/>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="102">
+      <c r="C194" s="111">
         <f>C193-C196-C197</f>
         <v>950000</v>
       </c>
-      <c r="D194" s="103"/>
+      <c r="D194" s="112"/>
       <c r="E194" s="14">
         <f>C194/C192*100</f>
         <v>84.887564496274862</v>
@@ -9731,11 +9740,11 @@
       <c r="B195" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="94">
+      <c r="C195" s="103">
         <f>C192-C194</f>
         <v>169127.40769195836</v>
       </c>
-      <c r="D195" s="94"/>
+      <c r="D195" s="103"/>
       <c r="E195" s="14">
         <f>100-E194</f>
         <v>15.112435503725138</v>
@@ -9745,11 +9754,11 @@
       <c r="B196" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="95">
+      <c r="C196" s="104">
         <f>C193*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D196" s="96"/>
+      <c r="D196" s="105"/>
       <c r="E196" s="14">
         <v>3</v>
       </c>
@@ -9758,17 +9767,23 @@
       <c r="B197" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C197" s="95">
+      <c r="C197" s="104">
         <f>C193*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D197" s="96"/>
+      <c r="D197" s="105"/>
       <c r="E197" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9777,12 +9792,6 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9824,81 +9833,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
       <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="M5" s="1"/>
       <c r="N5" s="79"/>
     </row>
@@ -9912,31 +9921,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
       <c r="M6" s="1"/>
       <c r="N6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="N7" s="79"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14842,11 +14851,11 @@
       <c r="B235" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C235" s="95">
+      <c r="C235" s="104">
         <f>J233</f>
         <v>1167390.8565538933</v>
       </c>
-      <c r="D235" s="96"/>
+      <c r="D235" s="105"/>
       <c r="E235" s="14">
         <v>100</v>
       </c>
@@ -14861,21 +14870,21 @@
       <c r="B236" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C236" s="102">
+      <c r="C236" s="111">
         <v>1000000</v>
       </c>
-      <c r="D236" s="103"/>
+      <c r="D236" s="112"/>
       <c r="E236" s="14"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B237" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="102">
+      <c r="C237" s="111">
         <f>C236-C239-C240</f>
         <v>950000</v>
       </c>
-      <c r="D237" s="103"/>
+      <c r="D237" s="112"/>
       <c r="E237" s="14">
         <f>C237/C235*100</f>
         <v>81.37805728617532</v>
@@ -14885,11 +14894,11 @@
       <c r="B238" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C238" s="94">
+      <c r="C238" s="103">
         <f>C235-C237</f>
         <v>217390.8565538933</v>
       </c>
-      <c r="D238" s="94"/>
+      <c r="D238" s="103"/>
       <c r="E238" s="14">
         <f>100-E237</f>
         <v>18.62194271382468</v>
@@ -14899,11 +14908,11 @@
       <c r="B239" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="95">
+      <c r="C239" s="104">
         <f>C236*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D239" s="96"/>
+      <c r="D239" s="105"/>
       <c r="E239" s="14">
         <v>3</v>
       </c>
@@ -14912,17 +14921,23 @@
       <c r="B240" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C240" s="95">
+      <c r="C240" s="104">
         <f>C236*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D240" s="96"/>
+      <c r="D240" s="105"/>
       <c r="E240" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C239:D239"/>
     <mergeCell ref="C240:D240"/>
     <mergeCell ref="A7:F7"/>
@@ -14931,12 +14946,6 @@
     <mergeCell ref="C236:D236"/>
     <mergeCell ref="C237:D237"/>
     <mergeCell ref="C238:D238"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14954,8 +14963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14978,81 +14987,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
       <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="M5" s="1"/>
       <c r="N5" s="79"/>
     </row>
@@ -15066,31 +15075,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
       <c r="M6" s="1"/>
       <c r="N6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="N7" s="79"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15148,7 +15157,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="89" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="49"/>
@@ -15177,7 +15186,7 @@
         <f>1.11+0.7</f>
         <v>1.81</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="81">
         <f t="shared" ref="G11:G20" si="0">PRODUCT(C11:F11)</f>
         <v>10.7514</v>
       </c>
@@ -15200,7 +15209,7 @@
         <f>1.11+0.7</f>
         <v>1.81</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="81">
         <f t="shared" si="0"/>
         <v>10.7514</v>
       </c>
@@ -15227,7 +15236,7 @@
         <f>F30</f>
         <v>0.75</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15254,7 +15263,7 @@
         <f>F27</f>
         <v>0.7</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="81">
         <f t="shared" si="0"/>
         <v>-0.97999999999999987</v>
       </c>
@@ -15281,7 +15290,7 @@
         <f>F28</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="81">
         <f t="shared" si="0"/>
         <v>-3.7793355684242598</v>
       </c>
@@ -15307,7 +15316,7 @@
         <f>0.75-0.15*4</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15318,7 +15327,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="89" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="46">
@@ -15333,7 +15342,7 @@
         <f>20/12/3.281</f>
         <v>0.50797521080971253</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="81">
         <f t="shared" si="0"/>
         <v>3.9221899849170119</v>
       </c>
@@ -15359,7 +15368,7 @@
         <f>1/3.281</f>
         <v>0.30478512648582745</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="81">
         <f t="shared" si="0"/>
         <v>-0.32512890664443644</v>
       </c>
@@ -15384,7 +15393,7 @@
         <f>5/12/3.281</f>
         <v>0.12699380270242813</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="81">
         <f t="shared" si="0"/>
         <v>-0.33545045923632338</v>
       </c>
@@ -15409,7 +15418,7 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="81">
         <f t="shared" si="0"/>
         <v>-0.18578794665396367</v>
       </c>
@@ -15510,7 +15519,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="81">
         <f t="shared" ref="G25:G28" si="1">PRODUCT(C25:F25)</f>
         <v>1.0094483389210605</v>
       </c>
@@ -15535,7 +15544,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="81">
         <f t="shared" si="1"/>
         <v>1.0094483389210605</v>
       </c>
@@ -15561,7 +15570,7 @@
       <c r="F27" s="14">
         <v>0.7</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="81">
         <f t="shared" si="1"/>
         <v>-9.799999999999999E-2</v>
       </c>
@@ -15588,7 +15597,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="81">
         <f t="shared" si="1"/>
         <v>-0.29259372142639434</v>
       </c>
@@ -15617,7 +15626,7 @@
         <f>F16</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="81">
         <f>PRODUCT(C29:F29)</f>
         <v>0</v>
       </c>
@@ -15643,7 +15652,7 @@
       <c r="F30" s="14">
         <v>0.75</v>
       </c>
-      <c r="G30" s="104">
+      <c r="G30" s="81">
         <f>PRODUCT(C30:F30)</f>
         <v>0</v>
       </c>
@@ -15672,7 +15681,7 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G31" s="104">
+      <c r="G31" s="81">
         <f>PRODUCT(C31:F31)</f>
         <v>1.8541095194554505E-2</v>
       </c>
@@ -15690,7 +15699,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="105">
+      <c r="G32" s="82">
         <f>SUM(G25:G31)</f>
         <v>1.6468440516102811</v>
       </c>
@@ -15715,7 +15724,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="105"/>
+      <c r="G33" s="82"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44">
@@ -15731,7 +15740,7 @@
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="106"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="44"/>
@@ -15755,7 +15764,7 @@
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="106"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="44"/>
@@ -15782,7 +15791,7 @@
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="104">
+      <c r="G36" s="81">
         <f>PRODUCT(C36:F36)</f>
         <v>12.24</v>
       </c>
@@ -15800,7 +15809,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="105">
+      <c r="G37" s="82">
         <f>SUM(G36)</f>
         <v>12.24</v>
       </c>
@@ -15826,7 +15835,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="105"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="44">
@@ -15842,7 +15851,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="104"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="40"/>
@@ -15859,7 +15868,7 @@
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="106"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="38"/>
       <c r="I40" s="39"/>
       <c r="J40" s="44"/>
@@ -15886,7 +15895,7 @@
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="104">
+      <c r="G41" s="81">
         <f>PRODUCT(C41:F41)</f>
         <v>12.24</v>
       </c>
@@ -15904,7 +15913,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="105">
+      <c r="G42" s="82">
         <f>SUM(G41)</f>
         <v>12.24</v>
       </c>
@@ -15997,7 +16006,7 @@
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="104">
+      <c r="G46" s="81">
         <f>PRODUCT(C46:F46)</f>
         <v>10.61</v>
       </c>
@@ -16015,7 +16024,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="105">
+      <c r="G47" s="82">
         <f>SUM(G46)</f>
         <v>10.61</v>
       </c>
@@ -16108,7 +16117,7 @@
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="104">
+      <c r="G51" s="81">
         <f>PRODUCT(C51:F51)</f>
         <v>22.780859494056692</v>
       </c>
@@ -16219,7 +16228,7 @@
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="104">
+      <c r="G56" s="81">
         <f>PRODUCT(C56:F56)</f>
         <v>10.809999999999999</v>
       </c>
@@ -16242,7 +16251,7 @@
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="104">
+      <c r="G57" s="81">
         <f>PRODUCT(C57:F57)</f>
         <v>8.1276033729554005</v>
       </c>
@@ -16426,98 +16435,143 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="29"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-    </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="29"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="29"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-    </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="29"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-    </row>
-    <row r="70" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="43">
+    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="43">
         <v>22</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B66" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="57"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="43"/>
+      <c r="B67" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="85">
+        <v>1</v>
+      </c>
+      <c r="D67" s="86">
+        <f>1.2+(6.667/3.281+1/12/3.281)*2</f>
+        <v>5.3148023976429952</v>
+      </c>
+      <c r="E67" s="86">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F67" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="G67" s="86">
+        <f t="shared" ref="G67:G71" si="2">PRODUCT(C67:F67)</f>
+        <v>5.314802397642996E-2</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="43"/>
+      <c r="B68" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="85">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D68" s="86">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E68" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F68" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="G68" s="86">
+        <f t="shared" si="2"/>
+        <v>2.2707415702151117E-2</v>
+      </c>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="5"/>
+      <c r="M68">
+        <f>508.75/1.15</f>
+        <v>442.39130434782612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="85">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D69" s="86">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E69" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F69" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="G69" s="86">
+        <f t="shared" si="2"/>
+        <v>1.8875134273490163E-2</v>
+      </c>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="5"/>
+      <c r="M69">
+        <f>155.11/1.15</f>
+        <v>134.87826086956525</v>
+      </c>
+      <c r="N69">
+        <f>M69*5.5</f>
+        <v>741.8304347826089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="85">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D70" s="86">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E70" s="86">
+        <f>5/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
+      <c r="F70" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G70" s="86">
+        <f t="shared" si="2"/>
+        <v>1.7695438381397033E-2</v>
+      </c>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
       <c r="J70" s="40"/>
@@ -16525,26 +16579,28 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
-      <c r="B71" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="108">
-        <v>1</v>
-      </c>
-      <c r="D71" s="109">
-        <f>1.2+(6.667/3.281+1/12/3.281)*2</f>
-        <v>5.3148023976429952</v>
-      </c>
-      <c r="E71" s="109">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="F71" s="109">
-        <v>0.125</v>
-      </c>
-      <c r="G71" s="109">
-        <f t="shared" ref="G71:G82" si="2">PRODUCT(C71:F71)</f>
-        <v>6.6435029970537449E-2</v>
+      <c r="B71" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="85">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="D71" s="86">
+        <f>24/12/3.281</f>
+        <v>0.6095702529716549</v>
+      </c>
+      <c r="E71" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F71" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G71" s="86">
+        <f t="shared" si="2"/>
+        <v>1.8875134273490159E-2</v>
       </c>
       <c r="H71" s="57"/>
       <c r="I71" s="57"/>
@@ -16553,27 +16609,26 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
-      <c r="B72" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="108">
-        <v>1</v>
-      </c>
-      <c r="D72" s="109">
-        <f>5.5/3.281</f>
-        <v>1.6763181956720512</v>
-      </c>
-      <c r="E72" s="109">
-        <f>0.15</f>
-        <v>0.15</v>
-      </c>
-      <c r="F72" s="109">
+      <c r="B72" s="84"/>
+      <c r="C72" s="85">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="D72" s="86">
+        <f>23/12/3.281</f>
+        <v>0.58417149243116939</v>
+      </c>
+      <c r="E72" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G72" s="109">
-        <f t="shared" si="2"/>
-        <v>1.9159381998690005E-2</v>
+      <c r="F72" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="G72" s="86">
+        <f>PRODUCT(C72:F72)</f>
+        <v>1.8088670345428073E-2</v>
       </c>
       <c r="H72" s="57"/>
       <c r="I72" s="57"/>
@@ -16582,184 +16637,128 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
-      <c r="B73" s="107" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="108">
-        <v>1</v>
-      </c>
-      <c r="D73" s="109">
-        <f>1.2+2*(6.833/3.281)</f>
-        <v>5.3651935385553182</v>
-      </c>
-      <c r="E73" s="109">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="F73" s="109">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="G73" s="110">
-        <f t="shared" si="2"/>
-        <v>3.4610704546156465E-3</v>
+      <c r="B73" s="84"/>
+      <c r="C73" s="85">
+        <v>8</v>
+      </c>
+      <c r="D73" s="86">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E73" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F73" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G73" s="86">
+        <f t="shared" ref="G73" si="3">PRODUCT(C73:F73)</f>
+        <v>2.8312701410235244E-2</v>
       </c>
       <c r="H73" s="57"/>
       <c r="I73" s="57"/>
       <c r="J73" s="40"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
-      <c r="B74" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="108">
-        <v>2</v>
-      </c>
-      <c r="D74" s="109">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
-      </c>
-      <c r="E74" s="109">
+      <c r="B74" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="85"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="88">
+        <f>SUM(G67:G73)</f>
+        <v>0.17770251836262174</v>
+      </c>
+      <c r="H74" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="60">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
+      <c r="J74" s="61">
+        <f>G74*I74</f>
+        <v>54658.819174999699</v>
+      </c>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="61">
+        <f>0.13*G74*262808.07</f>
+        <v>6071.2152650526241</v>
+      </c>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="43">
+        <v>24</v>
+      </c>
+      <c r="B77" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="85">
+        <v>1</v>
+      </c>
+      <c r="D78" s="86">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="E78" s="86">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="F74" s="109">
-        <f>2/12/3.281</f>
-        <v>5.0797521080971242E-2</v>
-      </c>
-      <c r="G74" s="109">
-        <f t="shared" si="2"/>
-        <v>3.2512890664443642E-2</v>
-      </c>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="5"/>
-      <c r="M74">
-        <f>I87*G72</f>
-        <v>5893.1590042756379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="108">
-        <v>2</v>
-      </c>
-      <c r="D75" s="109">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
-      </c>
-      <c r="E75" s="109">
+      <c r="F78" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="F75" s="109">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G75" s="109">
-        <f t="shared" si="2"/>
-        <v>2.4773613733955837E-2</v>
-      </c>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="108">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="D76" s="109">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E76" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="F76" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="G76" s="109">
-        <f t="shared" si="2"/>
-        <v>2.2707415702151117E-2</v>
-      </c>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="5"/>
-      <c r="M76">
-        <f>508.75/1.15</f>
-        <v>442.39130434782612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="108">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
-      <c r="D77" s="109">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
-      </c>
-      <c r="E77" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="F77" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="G77" s="109">
-        <f t="shared" si="2"/>
-        <v>1.8875134273490163E-2</v>
-      </c>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="5"/>
-      <c r="M77">
-        <f>155.11/1.15</f>
-        <v>134.87826086956525</v>
-      </c>
-      <c r="N77">
-        <f>M77*5.5</f>
-        <v>741.8304347826089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="108">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
-      <c r="D78" s="109">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
-      </c>
-      <c r="E78" s="109">
-        <f>5/12/3.281</f>
-        <v>0.12699380270242813</v>
-      </c>
-      <c r="F78" s="109">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G78" s="109">
-        <f t="shared" si="2"/>
-        <v>1.7695438381397033E-2</v>
+      <c r="G78" s="86">
+        <f>PRODUCT(C78:F78)</f>
+        <v>1.9159381998690005E-2</v>
       </c>
       <c r="H78" s="57"/>
       <c r="I78" s="57"/>
@@ -16768,26 +16767,27 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="108">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
-      <c r="D79" s="109">
-        <f>0.96</f>
-        <v>0.96</v>
-      </c>
-      <c r="E79" s="109">
+      <c r="B79" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="85">
+        <v>1</v>
+      </c>
+      <c r="D79" s="86">
+        <f>1.2+2*(6.833/3.281)</f>
+        <v>5.3651935385553182</v>
+      </c>
+      <c r="E79" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F79" s="109">
-        <f>5/12/3.281</f>
-        <v>0.12699380270242813</v>
-      </c>
-      <c r="G79" s="109">
-        <f t="shared" si="2"/>
-        <v>6.1929315551321239E-3</v>
+      <c r="F79" s="86">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="G79" s="87">
+        <f>PRODUCT(C79:F79)</f>
+        <v>3.4610704546156465E-3</v>
       </c>
       <c r="H79" s="57"/>
       <c r="I79" s="57"/>
@@ -16796,54 +16796,58 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="108">
-        <f>1*2</f>
+      <c r="B80" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="85">
         <v>2</v>
       </c>
-      <c r="D80" s="109">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
-      </c>
-      <c r="E80" s="109">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="F80" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="G80" s="110">
-        <f t="shared" si="2"/>
-        <v>4.7187835683725407E-3</v>
+      <c r="D80" s="86">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="E80" s="86">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="F80" s="86">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="G80" s="86">
+        <f>PRODUCT(C80:F80)</f>
+        <v>3.2512890664443642E-2</v>
       </c>
       <c r="H80" s="57"/>
       <c r="I80" s="57"/>
       <c r="J80" s="40"/>
       <c r="K80" s="5"/>
+      <c r="M80">
+        <f>I74*G78</f>
+        <v>5893.1590042756379</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="108">
-        <f>1*2</f>
+      <c r="B81" s="84"/>
+      <c r="C81" s="85">
         <v>2</v>
       </c>
-      <c r="D81" s="109">
-        <f>0.83</f>
-        <v>0.83</v>
-      </c>
-      <c r="E81" s="109">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
-      </c>
-      <c r="F81" s="109">
+      <c r="D81" s="86">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="E81" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G81" s="110">
-        <f t="shared" si="2"/>
-        <v>3.2125832442247886E-3</v>
+      <c r="F81" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G81" s="86">
+        <f>PRODUCT(C81:F81)</f>
+        <v>2.4773613733955837E-2</v>
       </c>
       <c r="H81" s="57"/>
       <c r="I81" s="57"/>
@@ -16852,28 +16856,28 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
-      <c r="B82" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="108">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="D82" s="109">
-        <f>24/12/3.281</f>
-        <v>0.6095702529716549</v>
-      </c>
-      <c r="E82" s="109">
-        <f>4/12/3.281</f>
-        <v>0.10159504216194248</v>
-      </c>
-      <c r="F82" s="109">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G82" s="110">
-        <f t="shared" si="2"/>
-        <v>1.8875134273490159E-2</v>
+      <c r="B82" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="85">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D82" s="86">
+        <f>0.96</f>
+        <v>0.96</v>
+      </c>
+      <c r="E82" s="86">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F82" s="86">
+        <f>5/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
+      <c r="G82" s="86">
+        <f>PRODUCT(C82:F82)</f>
+        <v>6.1929315551321239E-3</v>
       </c>
       <c r="H82" s="57"/>
       <c r="I82" s="57"/>
@@ -16882,26 +16886,26 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="108">
-        <f>4*2</f>
-        <v>8</v>
-      </c>
-      <c r="D83" s="109">
-        <f>1/3.281</f>
-        <v>0.30478512648582745</v>
-      </c>
-      <c r="E83" s="109">
+      <c r="B83" s="84"/>
+      <c r="C83" s="85">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D83" s="86">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="E83" s="86">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F83" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="F83" s="109">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G83" s="110">
-        <f t="shared" ref="G83:G86" si="3">PRODUCT(C83:F83)</f>
-        <v>1.8875134273490159E-2</v>
+      <c r="G83" s="87">
+        <f>PRODUCT(C83:F83)</f>
+        <v>4.7187835683725407E-3</v>
       </c>
       <c r="H83" s="57"/>
       <c r="I83" s="57"/>
@@ -16910,26 +16914,26 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="108">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="D84" s="109">
-        <f>23/12/3.281</f>
-        <v>0.58417149243116939</v>
-      </c>
-      <c r="E84" s="109">
+      <c r="B84" s="84"/>
+      <c r="C84" s="85">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D84" s="86">
+        <f>0.83</f>
+        <v>0.83</v>
+      </c>
+      <c r="E84" s="86">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F84" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="F84" s="109">
-        <f>5/12/3.281</f>
-        <v>0.12699380270242813</v>
-      </c>
-      <c r="G84" s="110">
-        <f t="shared" si="3"/>
-        <v>2.2610837931785095E-2</v>
+      <c r="G84" s="87">
+        <f>PRODUCT(C84:F84)</f>
+        <v>3.2125832442247886E-3</v>
       </c>
       <c r="H84" s="57"/>
       <c r="I84" s="57"/>
@@ -16938,26 +16942,28 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="108">
+      <c r="B85" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="85">
         <f t="shared" ref="C85:C86" si="4">4*1</f>
         <v>4</v>
       </c>
-      <c r="D85" s="109">
-        <f>26/3.281</f>
-        <v>7.9244132886315146</v>
-      </c>
-      <c r="E85" s="109">
+      <c r="D85" s="86">
+        <f>26/12/3.281</f>
+        <v>0.66036777405262614</v>
+      </c>
+      <c r="E85" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F85" s="109">
+      <c r="F85" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="G85" s="110">
-        <f t="shared" si="3"/>
-        <v>8.1792248518457372E-2</v>
+      <c r="G85" s="87">
+        <f>PRODUCT(C85:F85)</f>
+        <v>6.8160207098714471E-3</v>
       </c>
       <c r="H85" s="57"/>
       <c r="I85" s="57"/>
@@ -16966,25 +16972,25 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="108">
+      <c r="B86" s="84"/>
+      <c r="C86" s="85">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="86">
         <f>28/12/3.281</f>
         <v>0.7111652951335975</v>
       </c>
-      <c r="E86" s="109">
+      <c r="E86" s="86">
         <f>0.12</f>
         <v>0.12</v>
       </c>
-      <c r="F86" s="109">
+      <c r="F86" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="G86" s="110">
-        <f t="shared" si="3"/>
+      <c r="G86" s="87">
+        <f>PRODUCT(C86:F86)</f>
         <v>8.6701041771849729E-3</v>
       </c>
       <c r="H86" s="57"/>
@@ -16992,125 +16998,132 @@
       <c r="J86" s="40"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
-      <c r="B87" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="111">
-        <f>SUM(G71:G77)</f>
-        <v>0.18792453679788387</v>
-      </c>
-      <c r="H87" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="60">
-        <f>353723.98/1.15</f>
-        <v>307586.06956521742</v>
-      </c>
-      <c r="J87" s="61">
-        <f>G87*I87</f>
-        <v>57802.96964852517</v>
-      </c>
+      <c r="B87" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="85">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="D87" s="86">
+        <f>1/3.281</f>
+        <v>0.30478512648582745</v>
+      </c>
+      <c r="E87" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F87" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G87" s="87">
+        <f t="shared" ref="G87" si="5">PRODUCT(C87:F87)</f>
+        <v>1.8875134273490159E-2</v>
+      </c>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="40"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
-      <c r="B88" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="61">
-        <f>0.13*G87*262808.07</f>
-        <v>6420.4510267944597</v>
-      </c>
+      <c r="B88" s="84"/>
+      <c r="C88" s="85">
+        <v>4</v>
+      </c>
+      <c r="D88" s="86">
+        <f>10/12/3.281</f>
+        <v>0.25398760540485626</v>
+      </c>
+      <c r="E88" s="86">
+        <f>4/12/3.281</f>
+        <v>0.10159504216194248</v>
+      </c>
+      <c r="F88" s="86">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G88" s="87">
+        <f t="shared" ref="G88" si="6">PRODUCT(C88:F88)</f>
+        <v>7.8646392806209029E-3</v>
+      </c>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="40"/>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="61"/>
+      <c r="B89" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="85"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="88">
+        <f>SUM(G78:G88)</f>
+        <v>0.13625715366060204</v>
+      </c>
+      <c r="H89" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" s="60">
+        <f>286497.45/1.15</f>
+        <v>249128.21739130438</v>
+      </c>
+      <c r="J89" s="61">
+        <f>G89*I89</f>
+        <v>33945.501798278827</v>
+      </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="43">
-        <v>24</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>69</v>
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
       <c r="F90" s="54"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="40"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="61">
+        <f>0.13*G89*249128.22</f>
+        <v>4412.9152799851954</v>
+      </c>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
-      <c r="B91" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="108">
-        <v>2</v>
-      </c>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109">
-        <f>(1+6-3+3*3+2+1+1+2)/12/3.281+0.07</f>
-        <v>0.55257645026922675</v>
-      </c>
-      <c r="F91" s="109">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
-      </c>
-      <c r="G91" s="109">
-        <f>PRODUCT(C91:F91)</f>
-        <v>2.3578391660375413</v>
-      </c>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="40"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="61"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="43"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="108">
-        <v>1</v>
-      </c>
-      <c r="D92" s="109">
-        <f>3.33/3.281</f>
-        <v>1.0149344711978054</v>
-      </c>
-      <c r="E92" s="109">
-        <f>(1+1+2)/12/3.281+0.07</f>
-        <v>0.17159504216194249</v>
-      </c>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109">
-        <f>PRODUCT(C92:F92)</f>
-        <v>0.17415772337679622</v>
-      </c>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="43">
+        <v>24</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="53"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57"/>
       <c r="J92" s="40"/>
@@ -17118,22 +17131,24 @@
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="108">
-        <v>1</v>
-      </c>
-      <c r="D93" s="109">
-        <f>5.5/3.281</f>
-        <v>1.6763181956720512</v>
-      </c>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
-      </c>
-      <c r="G93" s="109">
+      <c r="B93" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="85">
+        <v>2</v>
+      </c>
+      <c r="D93" s="86">
+        <f>(2+4+2+2+2+3+2+4+4+4)/12/3.281</f>
+        <v>0.73656405567408301</v>
+      </c>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86">
+        <f>6.667/3.281</f>
+        <v>2.0320024382810118</v>
+      </c>
+      <c r="G93" s="86">
         <f>PRODUCT(C93:F93)</f>
-        <v>0.12772921332460005</v>
+        <v>2.9933999141597751</v>
       </c>
       <c r="H93" s="57"/>
       <c r="I93" s="57"/>
@@ -17142,50 +17157,57 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="56"/>
+      <c r="C94" s="85">
+        <v>1</v>
+      </c>
+      <c r="D94" s="86">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86">
+        <f>(2+3+2+2+5)/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="G94" s="86">
+        <f>PRODUCT(C94:F94)</f>
+        <v>0.59606966218146695</v>
+      </c>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="108"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="111">
-        <f>SUM(G91:G93)</f>
-        <v>2.6597261027389378</v>
-      </c>
-      <c r="H94" s="55" t="s">
+      <c r="C95" s="85"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="88">
+        <f>SUM(G93:G94)</f>
+        <v>3.5894695763412421</v>
+      </c>
+      <c r="H95" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I94" s="60">
+      <c r="I95" s="60">
         <f>46573/1.15</f>
         <v>40498.260869565223</v>
       </c>
-      <c r="J94" s="61">
-        <f>G94*I94</f>
-        <v>107714.28155031354</v>
-      </c>
-      <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="40"/>
+      <c r="J95" s="61">
+        <f>G95*I95</f>
+        <v>145367.27528603538</v>
+      </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="43">
-        <v>25</v>
-      </c>
-      <c r="B96" s="62" t="s">
-        <v>71</v>
-      </c>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="43"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="53"/>
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
@@ -17196,27 +17218,18 @@
       <c r="J96" s="40"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="53">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="43">
+        <v>25</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="53"/>
       <c r="D97" s="54"/>
-      <c r="E97" s="54">
-        <f>(2+4)/12/3.281</f>
-        <v>0.15239256324291373</v>
-      </c>
-      <c r="F97" s="54">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G97" s="54">
-        <f>PRODUCT(C97:F97)</f>
-        <v>0.33526363913441021</v>
-      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="57"/>
       <c r="I97" s="57"/>
       <c r="J97" s="40"/>
@@ -17224,23 +17237,24 @@
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
-      <c r="B98" s="56"/>
+      <c r="B98" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="C98" s="53">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
-      <c r="D98" s="54">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
-      </c>
-      <c r="E98" s="54"/>
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54">
+        <f>(2+3)/12/3.281</f>
+        <v>0.12699380270242813</v>
+      </c>
       <c r="F98" s="54">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G98" s="54">
         <f>PRODUCT(C98:F98)</f>
-        <v>0.13934095999047277</v>
+        <v>0.27938636594534194</v>
       </c>
       <c r="H98" s="57"/>
       <c r="I98" s="57"/>
@@ -17251,10 +17265,10 @@
       <c r="A99" s="43"/>
       <c r="B99" s="56"/>
       <c r="C99" s="53">
-        <f t="shared" ref="C99:C102" si="5">1*2</f>
+        <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D99" s="109">
+      <c r="D99" s="54">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
@@ -17264,7 +17278,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
       <c r="G99" s="54">
-        <f t="shared" ref="G99:G107" si="6">PRODUCT(C99:F99)</f>
+        <f>PRODUCT(C99:F99)</f>
         <v>0.13934095999047277</v>
       </c>
       <c r="H99" s="57"/>
@@ -17276,21 +17290,21 @@
       <c r="A100" s="43"/>
       <c r="B100" s="56"/>
       <c r="C100" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C100:C103" si="7">1*2</f>
         <v>2</v>
       </c>
-      <c r="D100" s="109">
-        <f>0.96</f>
-        <v>0.96</v>
+      <c r="D100" s="86">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
       </c>
       <c r="E100" s="54"/>
       <c r="F100" s="54">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
       </c>
       <c r="G100" s="54">
-        <f t="shared" si="6"/>
-        <v>4.8765620237732392E-2</v>
+        <f t="shared" ref="G100:G108" si="8">PRODUCT(C100:F100)</f>
+        <v>0.13934095999047277</v>
       </c>
       <c r="H100" s="57"/>
       <c r="I100" s="57"/>
@@ -17301,21 +17315,21 @@
       <c r="A101" s="43"/>
       <c r="B101" s="56"/>
       <c r="C101" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D101" s="109">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
+      <c r="D101" s="86">
+        <f>0.96</f>
+        <v>0.96</v>
       </c>
       <c r="E101" s="54"/>
       <c r="F101" s="54">
-        <f t="shared" ref="F101:F102" si="7">1/12/3.281</f>
+        <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
       <c r="G101" s="54">
-        <f t="shared" si="6"/>
-        <v>4.6446986663490925E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.8765620237732392E-2</v>
       </c>
       <c r="H101" s="57"/>
       <c r="I101" s="57"/>
@@ -17326,21 +17340,21 @@
       <c r="A102" s="43"/>
       <c r="B102" s="56"/>
       <c r="C102" s="53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D102" s="109">
-        <f>0.83</f>
-        <v>0.83</v>
+      <c r="D102" s="86">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
       </c>
       <c r="E102" s="54"/>
       <c r="F102" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F102:F103" si="9">1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
       <c r="G102" s="54">
-        <f t="shared" si="6"/>
-        <v>4.2161942497206131E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.6446986663490925E-2</v>
       </c>
       <c r="H102" s="57"/>
       <c r="I102" s="57"/>
@@ -17349,25 +17363,23 @@
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
-      <c r="B103" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" s="108">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="D103" s="109">
-        <f>24/12/3.281</f>
-        <v>0.6095702529716549</v>
+      <c r="B103" s="56"/>
+      <c r="C103" s="53">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="86">
+        <f>0.83</f>
+        <v>0.83</v>
       </c>
       <c r="E103" s="54"/>
       <c r="F103" s="54">
-        <f>3/12/3.281</f>
-        <v>7.6196281621456863E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.5398760540485621E-2</v>
       </c>
       <c r="G103" s="54">
-        <f t="shared" si="6"/>
-        <v>0.18578794665396367</v>
+        <f t="shared" si="8"/>
+        <v>4.2161942497206131E-2</v>
       </c>
       <c r="H103" s="57"/>
       <c r="I103" s="57"/>
@@ -17376,14 +17388,16 @@
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="108">
-        <f>4*2</f>
-        <v>8</v>
-      </c>
-      <c r="D104" s="109">
-        <f>1/3.281</f>
-        <v>0.30478512648582745</v>
+      <c r="B104" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="85">
+        <f>4*1</f>
+        <v>4</v>
+      </c>
+      <c r="D104" s="86">
+        <f>24/12/3.281</f>
+        <v>0.6095702529716549</v>
       </c>
       <c r="E104" s="54"/>
       <c r="F104" s="54">
@@ -17391,7 +17405,7 @@
         <v>7.6196281621456863E-2</v>
       </c>
       <c r="G104" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18578794665396367</v>
       </c>
       <c r="H104" s="57"/>
@@ -17402,13 +17416,13 @@
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="56"/>
-      <c r="C105" s="108">
-        <f>4*1</f>
-        <v>4</v>
-      </c>
-      <c r="D105" s="109">
-        <f>23/12/3.281</f>
-        <v>0.58417149243116939</v>
+      <c r="C105" s="85">
+        <f>4*2</f>
+        <v>8</v>
+      </c>
+      <c r="D105" s="86">
+        <f>1/3.281</f>
+        <v>0.30478512648582745</v>
       </c>
       <c r="E105" s="54"/>
       <c r="F105" s="54">
@@ -17416,8 +17430,8 @@
         <v>7.6196281621456863E-2</v>
       </c>
       <c r="G105" s="54">
-        <f t="shared" si="6"/>
-        <v>0.17804678221004855</v>
+        <f t="shared" si="8"/>
+        <v>0.18578794665396367</v>
       </c>
       <c r="H105" s="57"/>
       <c r="I105" s="57"/>
@@ -17427,22 +17441,22 @@
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="56"/>
-      <c r="C106" s="108">
-        <f t="shared" ref="C106:C107" si="8">4*1</f>
+      <c r="C106" s="85">
+        <f>4*1</f>
         <v>4</v>
       </c>
-      <c r="D106" s="109">
-        <f>26/3.281</f>
-        <v>7.9244132886315146</v>
+      <c r="D106" s="86">
+        <f>23/12/3.281</f>
+        <v>0.58417149243116939</v>
       </c>
       <c r="E106" s="54"/>
       <c r="F106" s="54">
-        <f>1/12/3.281</f>
-        <v>2.5398760540485621E-2</v>
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
       </c>
       <c r="G106" s="54">
-        <f t="shared" si="6"/>
-        <v>0.80508110216717599</v>
+        <f t="shared" si="8"/>
+        <v>0.17804678221004855</v>
       </c>
       <c r="H106" s="57"/>
       <c r="I106" s="57"/>
@@ -17452,13 +17466,13 @@
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="56"/>
-      <c r="C107" s="108">
-        <f t="shared" si="8"/>
+      <c r="C107" s="85">
+        <f t="shared" ref="C107:C108" si="10">4*1</f>
         <v>4</v>
       </c>
-      <c r="D107" s="109">
-        <f>28/12/3.281</f>
-        <v>0.7111652951335975</v>
+      <c r="D107" s="86">
+        <f>26/3.281</f>
+        <v>7.9244132886315146</v>
       </c>
       <c r="E107" s="54"/>
       <c r="F107" s="54">
@@ -17466,8 +17480,8 @@
         <v>2.5398760540485621E-2</v>
       </c>
       <c r="G107" s="54">
-        <f t="shared" si="6"/>
-        <v>7.2250868143208108E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.80508110216717599</v>
       </c>
       <c r="H107" s="57"/>
       <c r="I107" s="57"/>
@@ -17476,52 +17490,60 @@
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="56"/>
+      <c r="C108" s="85">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D108" s="86">
+        <f>28/12/3.281</f>
+        <v>0.7111652951335975</v>
+      </c>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="G108" s="54">
+        <f t="shared" si="8"/>
+        <v>7.2250868143208108E-2</v>
+      </c>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="43"/>
+      <c r="B109" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="55">
-        <f>SUM(G97:G107)</f>
-        <v>2.1782747543421448</v>
-      </c>
-      <c r="H108" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I108" s="60">
-        <f>50828.44/1.15</f>
-        <v>44198.643478260878</v>
-      </c>
-      <c r="J108" s="61">
-        <f>G108*I108</f>
-        <v>96276.789264864754</v>
-      </c>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="62"/>
       <c r="C109" s="53"/>
       <c r="D109" s="5"/>
       <c r="E109" s="54"/>
       <c r="F109" s="54"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="40"/>
+      <c r="G109" s="55">
+        <f>SUM(G98:G108)</f>
+        <v>2.1223974811530768</v>
+      </c>
+      <c r="H109" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" s="60">
+        <f>50828.44/1.15</f>
+        <v>44198.643478260878</v>
+      </c>
+      <c r="J109" s="61">
+        <f>G109*I109</f>
+        <v>93807.08958864375</v>
+      </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="43">
-        <v>26</v>
-      </c>
-      <c r="B110" s="62" t="s">
-        <v>73</v>
-      </c>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="43"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="54"/>
       <c r="F110" s="54"/>
       <c r="G110" s="57"/>
@@ -17530,27 +17552,18 @@
       <c r="J110" s="40"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="43"/>
-      <c r="B111" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C111" s="53">
-        <v>0</v>
-      </c>
-      <c r="D111" s="54">
-        <f>2.333/3.281</f>
-        <v>0.7110637000914356</v>
-      </c>
+    <row r="111" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="43">
+        <v>26</v>
+      </c>
+      <c r="B111" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="53"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="54"/>
-      <c r="F111" s="54">
-        <f>1.333/3.281</f>
-        <v>0.40627857360560804</v>
-      </c>
-      <c r="G111" s="54">
-        <f>PRODUCT(C111:F111)</f>
-        <v>0</v>
-      </c>
+      <c r="F111" s="54"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="57"/>
       <c r="I111" s="57"/>
       <c r="J111" s="40"/>
@@ -17592,7 +17605,7 @@
       <c r="E113" s="54"/>
       <c r="F113" s="54"/>
       <c r="G113" s="55">
-        <f>SUM(G111:G112)</f>
+        <f>SUM(G112:G112)</f>
         <v>0.3096465777566062</v>
       </c>
       <c r="H113" s="55" t="s">
@@ -17648,14 +17661,14 @@
         <v>123</v>
       </c>
       <c r="C116" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="14">
         <f>PRODUCT(C116:F116)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>98</v>
@@ -17665,7 +17678,7 @@
       </c>
       <c r="J116" s="40">
         <f>G116*I116</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="K116" s="29"/>
       <c r="M116" s="31"/>
@@ -17703,7 +17716,7 @@
       <c r="E118" s="29"/>
       <c r="F118" s="29"/>
       <c r="G118" s="44">
-        <f t="shared" ref="G118" si="9">PRODUCT(C118:F118)</f>
+        <f t="shared" ref="G118" si="11">PRODUCT(C118:F118)</f>
         <v>1</v>
       </c>
       <c r="H118" s="38" t="s">
@@ -17753,7 +17766,7 @@
       <c r="I120" s="44"/>
       <c r="J120" s="44">
         <f>SUM(J9:J118)</f>
-        <v>486243.89521508873</v>
+        <v>536292.22011758632</v>
       </c>
       <c r="K120" s="16"/>
     </row>
@@ -17761,11 +17774,11 @@
       <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="95">
+      <c r="C122" s="104">
         <f>J120</f>
-        <v>486243.89521508873</v>
-      </c>
-      <c r="D122" s="96"/>
+        <v>536292.22011758632</v>
+      </c>
+      <c r="D122" s="105"/>
       <c r="E122" s="14">
         <v>100</v>
       </c>
@@ -17780,49 +17793,49 @@
       <c r="B123" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="102">
+      <c r="C123" s="111">
         <v>500000</v>
       </c>
-      <c r="D123" s="103"/>
+      <c r="D123" s="112"/>
       <c r="E123" s="14"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B124" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="102">
+      <c r="C124" s="111">
         <f>C123-C126-C127</f>
         <v>475000</v>
       </c>
-      <c r="D124" s="103"/>
+      <c r="D124" s="112"/>
       <c r="E124" s="14">
         <f>C124/C122*100</f>
-        <v>97.687601772333807</v>
+        <v>88.571115183407372</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="94">
+      <c r="C125" s="103">
         <f>C122-C124</f>
-        <v>11243.895215088734</v>
-      </c>
-      <c r="D125" s="94"/>
+        <v>61292.220117586316</v>
+      </c>
+      <c r="D125" s="103"/>
       <c r="E125" s="14">
         <f>100-E124</f>
-        <v>2.3123982276661934</v>
+        <v>11.428884816592628</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B126" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="95">
+      <c r="C126" s="104">
         <f>C123*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D126" s="96"/>
+      <c r="D126" s="105"/>
       <c r="E126" s="14">
         <v>3</v>
       </c>
@@ -17831,23 +17844,17 @@
       <c r="B127" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="95">
+      <c r="C127" s="104">
         <f>C123*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D127" s="96"/>
+      <c r="D127" s="105"/>
       <c r="E127" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="A7:F7"/>
@@ -17856,6 +17863,12 @@
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
